--- a/trend/Pinnacle Hist Futures/symbols_roll_dates.xlsx
+++ b/trend/Pinnacle Hist Futures/symbols_roll_dates.xlsx
@@ -21,6 +21,904 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="315">
   <si>
+    <t>RollOverDate</t>
+  </si>
+  <si>
+    <t>Contract Months</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AUSTRALIAN $$, day session</t>
+  </si>
+  <si>
+    <t>IMM(CME)</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>8th of DM</t>
+  </si>
+  <si>
+    <t>H,M,U,Z</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>AUSTRALIAN $$, composite</t>
+  </si>
+  <si>
+    <t>1/4/1988 with Day Session Data to 01/02/1990</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AUSTRALIAN PRICE INDEX</t>
+  </si>
+  <si>
+    <t>ASE</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <r>
+      <t>Thur prior 2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Fri of DM</t>
+    </r>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BRENT CRUDE OIL, composite</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> of MPDM</t>
+    </r>
+  </si>
+  <si>
+    <t>F,G,H,J,K,M,N,Q,U,V,X,Z</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>BRENT GASOIL, comp.</t>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">th </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>of MPDM</t>
+    </r>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>BRITISH POUND, composite</t>
+  </si>
+  <si>
+    <t>1/2/1976 with Day Session History to 01/02/1990</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>SOYBEAN OIL</t>
+  </si>
+  <si>
+    <t>CBOT</t>
+  </si>
+  <si>
+    <t>22nd of MPDM</t>
+  </si>
+  <si>
+    <t>F,H,K,N,Q,Z</t>
+  </si>
+  <si>
+    <t>C_</t>
+  </si>
+  <si>
+    <t>CORN</t>
+  </si>
+  <si>
+    <t>H,K,N,U,Z</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CAC40 INDEX</t>
+  </si>
+  <si>
+    <t>MATIF</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>CANADIAN 10YR BOND</t>
+  </si>
+  <si>
+    <t>MontExch</t>
+  </si>
+  <si>
+    <t>CND</t>
+  </si>
+  <si>
+    <t>24th of MPDM</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>COCOA</t>
+  </si>
+  <si>
+    <t>CSC</t>
+  </si>
+  <si>
+    <t>01/05/1981**</t>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> of MPDM</t>
+    </r>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CRUDE OIL</t>
+  </si>
+  <si>
+    <t>NYMEX</t>
+  </si>
+  <si>
+    <t>11th of MPDM</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>CANADIAN $$, composite</t>
+  </si>
+  <si>
+    <t>1/3/1978 with Day Session History to 01/02/1990</t>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> of DM</t>
+    </r>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>CRB FUTURES</t>
+  </si>
+  <si>
+    <t>NYBOT</t>
+  </si>
+  <si>
+    <t>01/02/1987**</t>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> of DM</t>
+    </r>
+  </si>
+  <si>
+    <t>F,G,J,M,Q,X</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>COTTON #2</t>
+  </si>
+  <si>
+    <t>01/02/1973**</t>
+  </si>
+  <si>
+    <t>15th of MPDM</t>
+  </si>
+  <si>
+    <t>H,K,N,Z</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>MILK III, Comp.</t>
+  </si>
+  <si>
+    <t>CME</t>
+  </si>
+  <si>
+    <r>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> of MPDM</t>
+    </r>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>DOW JONES, day session</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>EURO BOND (BUND)</t>
+  </si>
+  <si>
+    <t>EUREX</t>
+  </si>
+  <si>
+    <t>DX</t>
+  </si>
+  <si>
+    <t>US DOLLAR INDEX</t>
+  </si>
+  <si>
+    <t>01/02/1986**</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>EURODOLLARS</t>
+  </si>
+  <si>
+    <t>6.25 (for nearest expiring contract)</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>NASDAQ, MINI</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>RUSSELL 2000, MINI</t>
+  </si>
+  <si>
+    <t> ICE</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>S &amp; P 500, MINI</t>
+  </si>
+  <si>
+    <t>IOM(CME)</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>T-NOTE, 5yr day session</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>T-NOTE, 5yr composite</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>FEEDER CATTLE</t>
+  </si>
+  <si>
+    <t>5th of DM</t>
+  </si>
+  <si>
+    <t>F,H,,K,Q,U,V,X</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>FED FUNDS</t>
+  </si>
+  <si>
+    <t>22nd of DM</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>EURO, composite</t>
+  </si>
+  <si>
+    <t>2/13/1975 with Day Session History to 01/04/1999</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>GOLDMAN SAKS C. I.</t>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> of DM</t>
+    </r>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>GILT, LONG  BOND</t>
+  </si>
+  <si>
+    <t>LIFFE</t>
+  </si>
+  <si>
+    <t>BPN</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>COPPER</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>HEATING OIL #2</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>HANG SENG</t>
+  </si>
+  <si>
+    <t>HKFE</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>UNLEADED GAS</t>
+  </si>
+  <si>
+    <t>JN</t>
+  </si>
+  <si>
+    <t>JAPANESE YEN, composite</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>ORANGE JUICE</t>
+  </si>
+  <si>
+    <t>CEC</t>
+  </si>
+  <si>
+    <t>25th of MPDM</t>
+  </si>
+  <si>
+    <t>F,H,K,N,U,X</t>
+  </si>
+  <si>
+    <t>JY</t>
+  </si>
+  <si>
+    <t>JAPANESE YEN, day session</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>COFFEE</t>
+  </si>
+  <si>
+    <t>01/02/1974**</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>WHEAT, KC</t>
+  </si>
+  <si>
+    <t>KCBT</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>LUMBER</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> of DM</t>
+    </r>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>LIVE CATTLE</t>
+  </si>
+  <si>
+    <t>27th of MPDM</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>LIVE HOGS</t>
+  </si>
+  <si>
+    <t>G,J,M,N,Q,V,Z</t>
+  </si>
+  <si>
+    <t>LX</t>
+  </si>
+  <si>
+    <t>FTSE 100 INDEX</t>
+  </si>
+  <si>
+    <t>13th of DM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>EURODOLLAR, composite</t>
+  </si>
+  <si>
+    <t>2/1/1982 with Day Session History to 6/19/2008</t>
+  </si>
+  <si>
+    <t>22th of MPDM</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>S&amp;P 400</t>
+  </si>
+  <si>
+    <t>(Mini electronic)</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>MEXICAN PESO</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>WHEAT, MINN</t>
+  </si>
+  <si>
+    <t>MGE</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>NASDAQ 100</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>NATURAL GAS</t>
+  </si>
+  <si>
+    <t>18th of MPDM</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>NIKKEI INDEX</t>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>rd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> of DM</t>
+    </r>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>ROUGH RICE</t>
+  </si>
+  <si>
+    <t>O_</t>
+  </si>
+  <si>
+    <t>OATS</t>
+  </si>
+  <si>
+    <t>13th  of MPDM</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PALLADIUM</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>PLATINUM</t>
+  </si>
+  <si>
+    <t>F,J,N,V</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>RBOB GASOLINE</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>RUSSELL 2000</t>
+  </si>
+  <si>
+    <t>S_</t>
+  </si>
+  <si>
+    <t>SOYBEANS</t>
+  </si>
+  <si>
+    <t>F,H,K,N,Q,X</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>SUGAR #11</t>
+  </si>
+  <si>
+    <t>01/02/1975**</t>
+  </si>
+  <si>
+    <t>H,K,N,V</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>S &amp; P 500, composite</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>SWISS FRANC, day session</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>SILVER  (COMMEX)</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>SOYBEAN MEAL</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>SWISS FRANC, composite</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>S &amp; P 500, day session</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>STERLING, SHORT</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>T-NOTE, 10yr day session</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>T-NOTES, 2yr day session</t>
+  </si>
+  <si>
+    <t>1/128</t>
+  </si>
+  <si>
+    <t>TU</t>
+  </si>
+  <si>
+    <t>T-NOTES, 2yr composite</t>
+  </si>
+  <si>
+    <t>TY</t>
+  </si>
+  <si>
+    <t>T-NOTE, 10yr composite</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>T-BONDS, day session</t>
+  </si>
+  <si>
+    <t>UB</t>
+  </si>
+  <si>
+    <t>EURO BOBL</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>T-BONDS, composite</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>EURO SCHATZ</t>
+  </si>
+  <si>
+    <t>W_</t>
+  </si>
+  <si>
+    <t>WHEAT, CBOT</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>GERMAN DAX INDEX</t>
+  </si>
+  <si>
+    <t>XU</t>
+  </si>
+  <si>
+    <t>DOW JONES EUROSTOXX50</t>
+  </si>
+  <si>
+    <t>YM</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>MarketName</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StartDate</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>BigPoint Value</t>
+  </si>
+  <si>
+    <t>TickSize</t>
+  </si>
+  <si>
+    <t>Min$Move</t>
+  </si>
+  <si>
     <t>Mini Dow Jones ($5.00)</t>
   </si>
   <si>
@@ -333,909 +1231,17 @@
   <si>
     <t>GI</t>
   </si>
-  <si>
-    <t>GOLDMAN SAKS C. I.</t>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> of DM</t>
-    </r>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>GILT, LONG  BOND</t>
-  </si>
-  <si>
-    <t>LIFFE</t>
-  </si>
-  <si>
-    <t>BPN</t>
-  </si>
-  <si>
-    <t>HG</t>
-  </si>
-  <si>
-    <t>COPPER</t>
-  </si>
-  <si>
-    <t>HO</t>
-  </si>
-  <si>
-    <t>HEATING OIL #2</t>
-  </si>
-  <si>
-    <t>HS</t>
-  </si>
-  <si>
-    <t>HANG SENG</t>
-  </si>
-  <si>
-    <t>HKFE</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>HU</t>
-  </si>
-  <si>
-    <t>UNLEADED GAS</t>
-  </si>
-  <si>
-    <t>JN</t>
-  </si>
-  <si>
-    <t>JAPANESE YEN, composite</t>
-  </si>
-  <si>
-    <t>JO</t>
-  </si>
-  <si>
-    <t>ORANGE JUICE</t>
-  </si>
-  <si>
-    <t>CEC</t>
-  </si>
-  <si>
-    <t>25th of MPDM</t>
-  </si>
-  <si>
-    <t>F,H,K,N,U,X</t>
-  </si>
-  <si>
-    <t>JY</t>
-  </si>
-  <si>
-    <t>JAPANESE YEN, day session</t>
-  </si>
-  <si>
-    <t>KC</t>
-  </si>
-  <si>
-    <t>COFFEE</t>
-  </si>
-  <si>
-    <t>01/02/1974**</t>
-  </si>
-  <si>
-    <t>KW</t>
-  </si>
-  <si>
-    <t>WHEAT, KC</t>
-  </si>
-  <si>
-    <t>KCBT</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>LUMBER</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>st</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> of DM</t>
-    </r>
-  </si>
-  <si>
-    <t>LC</t>
-  </si>
-  <si>
-    <t>LIVE CATTLE</t>
-  </si>
-  <si>
-    <t>27th of MPDM</t>
-  </si>
-  <si>
-    <t>LH</t>
-  </si>
-  <si>
-    <t>LIVE HOGS</t>
-  </si>
-  <si>
-    <t>G,J,M,N,Q,V,Z</t>
-  </si>
-  <si>
-    <t>LX</t>
-  </si>
-  <si>
-    <t>FTSE 100 INDEX</t>
-  </si>
-  <si>
-    <t>13th of DM</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>EURODOLLAR, composite</t>
-  </si>
-  <si>
-    <t>2/1/1982 with Day Session History to 6/19/2008</t>
-  </si>
-  <si>
-    <t>22th of MPDM</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>S&amp;P 400</t>
-  </si>
-  <si>
-    <t>(Mini electronic)</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>MEXICAN PESO</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>WHEAT, MINN</t>
-  </si>
-  <si>
-    <t>MGE</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>NASDAQ 100</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>NATURAL GAS</t>
-  </si>
-  <si>
-    <t>18th of MPDM</t>
-  </si>
-  <si>
-    <t>NK</t>
-  </si>
-  <si>
-    <t>NIKKEI INDEX</t>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>rd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> of DM</t>
-    </r>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t>ROUGH RICE</t>
-  </si>
-  <si>
-    <t>O_</t>
-  </si>
-  <si>
-    <t>OATS</t>
-  </si>
-  <si>
-    <t>13th  of MPDM</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>PALLADIUM</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>PLATINUM</t>
-  </si>
-  <si>
-    <t>F,J,N,V</t>
-  </si>
-  <si>
-    <t>RB</t>
-  </si>
-  <si>
-    <t>RBOB GASOLINE</t>
-  </si>
-  <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>RUSSELL 2000</t>
-  </si>
-  <si>
-    <t>S_</t>
-  </si>
-  <si>
-    <t>SOYBEANS</t>
-  </si>
-  <si>
-    <t>F,H,K,N,Q,X</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
-    <t>SUGAR #11</t>
-  </si>
-  <si>
-    <t>01/02/1975**</t>
-  </si>
-  <si>
-    <t>H,K,N,V</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>S &amp; P 500, composite</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>SWISS FRANC, day session</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>SILVER  (COMMEX)</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
-    <t>SOYBEAN MEAL</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>SWISS FRANC, composite</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>S &amp; P 500, day session</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>STERLING, SHORT</t>
-  </si>
-  <si>
-    <t>TA</t>
-  </si>
-  <si>
-    <t>T-NOTE, 10yr day session</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>T-NOTES, 2yr day session</t>
-  </si>
-  <si>
-    <t>1/128</t>
-  </si>
-  <si>
-    <t>TU</t>
-  </si>
-  <si>
-    <t>T-NOTES, 2yr composite</t>
-  </si>
-  <si>
-    <t>TY</t>
-  </si>
-  <si>
-    <t>T-NOTE, 10yr composite</t>
-  </si>
-  <si>
-    <t>UA</t>
-  </si>
-  <si>
-    <t>T-BONDS, day session</t>
-  </si>
-  <si>
-    <t>UB</t>
-  </si>
-  <si>
-    <t>EURO BOBL</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>T-BONDS, composite</t>
-  </si>
-  <si>
-    <t>UZ</t>
-  </si>
-  <si>
-    <t>EURO SCHATZ</t>
-  </si>
-  <si>
-    <t>W_</t>
-  </si>
-  <si>
-    <t>WHEAT, CBOT</t>
-  </si>
-  <si>
-    <t>AX</t>
-  </si>
-  <si>
-    <t>GERMAN DAX INDEX</t>
-  </si>
-  <si>
-    <t>XU</t>
-  </si>
-  <si>
-    <t>DOW JONES EUROSTOXX50</t>
-  </si>
-  <si>
-    <t>YM</t>
-  </si>
-  <si>
-    <t>Symbol</t>
-  </si>
-  <si>
-    <t>MarketName</t>
-  </si>
-  <si>
-    <t>Exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> StartDate</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>BigPoint Value</t>
-  </si>
-  <si>
-    <t>TickSize</t>
-  </si>
-  <si>
-    <t>Min$Move</t>
-  </si>
-  <si>
-    <t>RollOverDate</t>
-  </si>
-  <si>
-    <t>Contract Months</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>AUSTRALIAN $$, day session</t>
-  </si>
-  <si>
-    <t>IMM(CME)</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>8th of DM</t>
-  </si>
-  <si>
-    <t>H,M,U,Z</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>AUSTRALIAN $$, composite</t>
-  </si>
-  <si>
-    <t>1/4/1988 with Day Session Data to 01/02/1990</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>AUSTRALIAN PRICE INDEX</t>
-  </si>
-  <si>
-    <t>ASE</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <r>
-      <t>Thur prior 2</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>nd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Fri of DM</t>
-    </r>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>BRENT CRUDE OIL, composite</t>
-  </si>
-  <si>
-    <t>ICE</t>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> of MPDM</t>
-    </r>
-  </si>
-  <si>
-    <t>F,G,H,J,K,M,N,Q,U,V,X,Z</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>BRENT GASOIL, comp.</t>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">th </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>of MPDM</t>
-    </r>
-  </si>
-  <si>
-    <t>BN</t>
-  </si>
-  <si>
-    <t>BRITISH POUND, composite</t>
-  </si>
-  <si>
-    <t>1/2/1976 with Day Session History to 01/02/1990</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t>SOYBEAN OIL</t>
-  </si>
-  <si>
-    <t>CBOT</t>
-  </si>
-  <si>
-    <t>22nd of MPDM</t>
-  </si>
-  <si>
-    <t>F,H,K,N,Q,Z</t>
-  </si>
-  <si>
-    <t>C_</t>
-  </si>
-  <si>
-    <t>CORN</t>
-  </si>
-  <si>
-    <t>H,K,N,U,Z</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>CAC40 INDEX</t>
-  </si>
-  <si>
-    <t>MATIF</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
-    <t>CANADIAN 10YR BOND</t>
-  </si>
-  <si>
-    <t>MontExch</t>
-  </si>
-  <si>
-    <t>CND</t>
-  </si>
-  <si>
-    <t>24th of MPDM</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>COCOA</t>
-  </si>
-  <si>
-    <t>CSC</t>
-  </si>
-  <si>
-    <t>01/05/1981**</t>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> of MPDM</t>
-    </r>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>CRUDE OIL</t>
-  </si>
-  <si>
-    <t>NYMEX</t>
-  </si>
-  <si>
-    <t>11th of MPDM</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>CANADIAN $$, composite</t>
-  </si>
-  <si>
-    <t>1/3/1978 with Day Session History to 01/02/1990</t>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> of DM</t>
-    </r>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>CRB FUTURES</t>
-  </si>
-  <si>
-    <t>NYBOT</t>
-  </si>
-  <si>
-    <t>01/02/1987**</t>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> of DM</t>
-    </r>
-  </si>
-  <si>
-    <t>F,G,J,M,Q,X</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>COTTON #2</t>
-  </si>
-  <si>
-    <t>01/02/1973**</t>
-  </si>
-  <si>
-    <t>15th of MPDM</t>
-  </si>
-  <si>
-    <t>H,K,N,Z</t>
-  </si>
-  <si>
-    <t>DA</t>
-  </si>
-  <si>
-    <t>MILK III, Comp.</t>
-  </si>
-  <si>
-    <t>CME</t>
-  </si>
-  <si>
-    <r>
-      <t>27</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> of MPDM</t>
-    </r>
-  </si>
-  <si>
-    <t>DJ</t>
-  </si>
-  <si>
-    <t>DOW JONES, day session</t>
-  </si>
-  <si>
-    <t>DT</t>
-  </si>
-  <si>
-    <t>EURO BOND (BUND)</t>
-  </si>
-  <si>
-    <t>EUREX</t>
-  </si>
-  <si>
-    <t>DX</t>
-  </si>
-  <si>
-    <t>US DOLLAR INDEX</t>
-  </si>
-  <si>
-    <t>01/02/1986**</t>
-  </si>
-  <si>
-    <t>ED</t>
-  </si>
-  <si>
-    <t>EURODOLLARS</t>
-  </si>
-  <si>
-    <t>6.25 (for nearest expiring contract)</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>NASDAQ, MINI</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
-    <t>RUSSELL 2000, MINI</t>
-  </si>
-  <si>
-    <t> ICE</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>S &amp; P 500, MINI</t>
-  </si>
-  <si>
-    <t>IOM(CME)</t>
-  </si>
-  <si>
-    <t>FA</t>
-  </si>
-  <si>
-    <t>T-NOTE, 5yr day session</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>T-NOTE, 5yr composite</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
-    <t>FEEDER CATTLE</t>
-  </si>
-  <si>
-    <t>5th of DM</t>
-  </si>
-  <si>
-    <t>F,H,,K,Q,U,V,X</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
-    <t>FED FUNDS</t>
-  </si>
-  <si>
-    <t>22nd of DM</t>
-  </si>
-  <si>
-    <t>FN</t>
-  </si>
-  <si>
-    <t>EURO, composite</t>
-  </si>
-  <si>
-    <t>2/13/1975 with Day Session History to 01/04/1999</t>
-  </si>
-  <si>
-    <t>FX</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -1428,30 +1434,6 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1472,6 +1454,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1804,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1816,52 +1822,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23" thickBot="1">
-      <c r="A1" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>210</v>
+      <c r="A1" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="23" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3">
         <v>30684</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F2" s="4">
         <v>1000</v>
@@ -1873,27 +1879,27 @@
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F3" s="4">
         <v>1000</v>
@@ -1905,27 +1911,27 @@
         <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3">
         <v>38230</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="F4" s="4">
         <v>25</v>
@@ -1937,27 +1943,27 @@
         <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="23" thickBot="1">
       <c r="A5" s="5" t="s">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>226</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3">
         <v>38209</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F5" s="4">
         <v>1000</v>
@@ -1969,27 +1975,27 @@
         <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="23" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3">
         <v>38209</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F6" s="4">
         <v>100</v>
@@ -2001,27 +2007,27 @@
         <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>233</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F7" s="4">
         <v>625</v>
@@ -2033,27 +2039,27 @@
         <v>6.25</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3">
         <v>23743</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F8" s="4">
         <v>600</v>
@@ -2065,27 +2071,27 @@
         <v>6</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3">
         <v>24111</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F9" s="4">
         <v>50</v>
@@ -2097,27 +2103,27 @@
         <v>12.5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>244</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>246</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3">
         <v>34702</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4">
         <v>10</v>
@@ -2129,27 +2135,27 @@
         <v>5</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="23" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3">
         <v>32878</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="F11" s="4">
         <v>1000</v>
@@ -2161,27 +2167,27 @@
         <v>10</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>256</v>
+        <v>47</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F12" s="4">
         <v>10</v>
@@ -2193,27 +2199,27 @@
         <v>10</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="23" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="D13" s="3">
         <v>29222</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F13" s="4">
         <v>1000</v>
@@ -2225,27 +2231,27 @@
         <v>10</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>261</v>
+        <v>52</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>262</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>264</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F14" s="4">
         <v>1000</v>
@@ -2257,27 +2263,27 @@
         <v>10</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>265</v>
+        <v>56</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14" thickBot="1">
       <c r="A15" s="1" t="s">
-        <v>266</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>267</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>268</v>
+        <v>59</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>269</v>
+        <v>60</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F15" s="4">
         <v>500</v>
@@ -2289,27 +2295,27 @@
         <v>25</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>270</v>
+        <v>61</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>271</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>272</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>273</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>268</v>
+        <v>59</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>274</v>
+        <v>65</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F16" s="4">
         <v>500</v>
@@ -2321,27 +2327,27 @@
         <v>5</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>275</v>
+        <v>66</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>276</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="23" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>278</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="D17" s="3">
         <v>34213</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F17" s="4">
         <v>2000</v>
@@ -2353,27 +2359,27 @@
         <v>20</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>280</v>
+        <v>71</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="24" thickBot="1">
       <c r="A18" s="1" t="s">
-        <v>281</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>282</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3">
         <v>34247</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F18" s="4">
         <v>25</v>
@@ -2385,27 +2391,27 @@
         <v>25</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="23" thickBot="1">
       <c r="A19" s="1" t="s">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>284</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="D19" s="3">
         <v>34702</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="F19" s="4">
         <v>1000</v>
@@ -2417,27 +2423,27 @@
         <v>10</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="23" thickBot="1">
       <c r="A20" s="1" t="s">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>268</v>
+        <v>59</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F20" s="4">
         <v>1000</v>
@@ -2449,27 +2455,27 @@
         <v>5</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>265</v>
+        <v>56</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="34" thickBot="1">
       <c r="A21" s="1" t="s">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="D21" s="3">
         <v>28521</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F21" s="4">
         <v>2500</v>
@@ -2478,30 +2484,30 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="24" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>292</v>
+        <v>83</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>293</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>34870</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F22" s="4">
         <v>20</v>
@@ -2513,27 +2519,27 @@
         <v>5</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="24" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>294</v>
+        <v>85</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>295</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>296</v>
+        <v>87</v>
       </c>
       <c r="D23" s="3">
         <v>36124</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F23" s="4">
         <v>100</v>
@@ -2545,27 +2551,27 @@
         <v>10</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="24" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>297</v>
+        <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>298</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>299</v>
+        <v>90</v>
       </c>
       <c r="D24" s="3">
         <v>34222</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F24" s="4">
         <v>50</v>
@@ -2577,27 +2583,27 @@
         <v>12.5</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="23" thickBot="1">
       <c r="A25" s="1" t="s">
-        <v>300</v>
+        <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>301</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3">
         <v>30825</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F25" s="4">
         <v>1000</v>
@@ -2609,27 +2615,27 @@
         <v>7.8125</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="23" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>302</v>
+        <v>93</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>303</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D26" s="3">
         <v>31049</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F26" s="4">
         <v>1000</v>
@@ -2641,27 +2647,27 @@
         <v>7.8125</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="23" thickBot="1">
       <c r="A27" s="1" t="s">
-        <v>304</v>
+        <v>95</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="D27" s="3">
         <v>27031</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F27" s="4">
         <v>500</v>
@@ -2673,27 +2679,27 @@
         <v>12.5</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>306</v>
+        <v>97</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>307</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="23" thickBot="1">
       <c r="A28" s="1" t="s">
-        <v>308</v>
+        <v>99</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>309</v>
+        <v>100</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D28" s="3">
         <v>31322</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F28" s="4">
         <v>4167</v>
@@ -2705,27 +2711,27 @@
         <v>10.4175</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>310</v>
+        <v>101</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="45" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>311</v>
+        <v>102</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>313</v>
+        <v>104</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F29" s="4">
         <v>1250</v>
@@ -2737,27 +2743,27 @@
         <v>12.5</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>265</v>
+        <v>56</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="34" thickBot="1">
       <c r="A30" s="1" t="s">
-        <v>314</v>
+        <v>105</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>308</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>73</v>
+        <v>309</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F30" s="4">
         <v>1250</v>
@@ -2769,27 +2775,27 @@
         <v>12.5</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>265</v>
+        <v>56</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="23" thickBot="1">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>310</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="D31" s="3">
         <v>25934</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F31" s="4">
         <v>100</v>
@@ -2801,27 +2807,27 @@
         <v>10</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>77</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="23" thickBot="1">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>299</v>
+        <v>90</v>
       </c>
       <c r="D32" s="3">
         <v>32511</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F32" s="4">
         <v>250</v>
@@ -2833,27 +2839,27 @@
         <v>12.5</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="23" thickBot="1">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D33" s="3">
         <v>31373</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F33" s="4">
         <v>1000</v>
@@ -2865,27 +2871,27 @@
         <v>10</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14" thickBot="1">
       <c r="A34" s="1" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="D34" s="3">
         <v>31049</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F34" s="4">
         <v>250</v>
@@ -2897,27 +2903,27 @@
         <v>12.5</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="23" thickBot="1">
       <c r="A35" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="D35" s="3">
         <v>27760</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F35" s="4">
         <v>420</v>
@@ -2929,27 +2935,27 @@
         <v>4.2</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>261</v>
+        <v>52</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="24" thickBot="1">
       <c r="A36" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="D36" s="3">
         <v>34263</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="F36" s="4">
         <v>50</v>
@@ -2961,27 +2967,27 @@
         <v>50</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="23" thickBot="1">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="D37" s="3">
         <v>29587</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F37" s="4">
         <v>420</v>
@@ -2993,27 +2999,27 @@
         <v>4.2</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>261</v>
+        <v>52</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="45" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>264</v>
+        <v>55</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F38" s="4">
         <v>1250</v>
@@ -3025,27 +3031,27 @@
         <v>12.5</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>265</v>
+        <v>56</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>274</v>
+        <v>65</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F39" s="4">
         <v>150</v>
@@ -3057,27 +3063,27 @@
         <v>7.5</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="23" thickBot="1">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="D40" s="3">
         <v>27031</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F40" s="4">
         <v>1250</v>
@@ -3089,27 +3095,27 @@
         <v>12.5</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>265</v>
+        <v>56</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F41" s="4">
         <v>375</v>
@@ -3121,27 +3127,27 @@
         <v>18.75</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>261</v>
+        <v>52</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14" thickBot="1">
       <c r="A42" s="1" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D42" s="3">
         <v>26666</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F42" s="4">
         <v>50</v>
@@ -3153,27 +3159,27 @@
         <v>12.5</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F43" s="4">
         <v>110</v>
@@ -3185,27 +3191,27 @@
         <v>11</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14" thickBot="1">
       <c r="A44" s="1" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="D44" s="3">
         <v>24475</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F44" s="4">
         <v>400</v>
@@ -3217,27 +3223,27 @@
         <v>10</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>77</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14" thickBot="1">
       <c r="A45" s="1" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="D45" s="3">
         <v>24111</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F45" s="4">
         <v>400</v>
@@ -3249,27 +3255,27 @@
         <v>10</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14" thickBot="1">
       <c r="A46" s="1" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D46" s="3">
         <v>31413</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F46" s="4">
         <v>10</v>
@@ -3281,27 +3287,27 @@
         <v>5</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="45" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F47" s="4">
         <v>2500</v>
@@ -3313,73 +3319,73 @@
         <v>6.25</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="10" t="s">
-        <v>126</v>
+      <c r="A48" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="D48" s="14">
+        <v>154</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="23">
         <v>32185</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="F48" s="16">
+      <c r="E48" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="17">
         <v>100</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G48" s="17">
         <v>0.1</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H48" s="17">
         <v>10</v>
       </c>
-      <c r="I48" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>216</v>
+      <c r="I48" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="14" thickBot="1">
-      <c r="A49" s="11"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
     </row>
     <row r="50" spans="1:10" ht="14" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="D50" s="3">
         <v>33360</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F50" s="4">
         <v>500000</v>
@@ -3391,27 +3397,27 @@
         <v>12.5</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>265</v>
+        <v>56</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="14" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="D51" s="3">
         <v>28126</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F51" s="4">
         <v>50</v>
@@ -3423,27 +3429,27 @@
         <v>12.5</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="24" thickBot="1">
       <c r="A52" s="1" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="D52" s="3">
         <v>33703</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F52" s="4">
         <v>100</v>
@@ -3455,27 +3461,27 @@
         <v>25</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="23" thickBot="1">
       <c r="A53" s="1" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="D53" s="3">
         <v>31778</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F53" s="4">
         <v>10000</v>
@@ -3487,27 +3493,27 @@
         <v>10</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="14" thickBot="1">
       <c r="A54" s="1" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>299</v>
+        <v>90</v>
       </c>
       <c r="D54" s="3">
         <v>31778</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F54" s="4">
         <v>5</v>
@@ -3519,27 +3525,27 @@
         <v>25</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="14" thickBot="1">
       <c r="A55" s="1" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D55" s="3">
         <v>30317</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F55" s="4">
         <v>2000</v>
@@ -3551,27 +3557,27 @@
         <v>10</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="14" thickBot="1">
       <c r="A56" s="1" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D56" s="3">
         <v>25934</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F56" s="4">
         <v>50</v>
@@ -3583,27 +3589,27 @@
         <v>12.5</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="14" thickBot="1">
       <c r="A57" s="1" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="D57" s="3">
         <v>28857</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F57" s="4">
         <v>100</v>
@@ -3615,27 +3621,27 @@
         <v>5</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="14" thickBot="1">
       <c r="A58" s="1" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>25204</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F58" s="4">
         <v>50</v>
@@ -3647,27 +3653,27 @@
         <v>5</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="23" thickBot="1">
       <c r="A59" s="1" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="D59" s="3">
         <v>37544</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F59" s="4">
         <v>420</v>
@@ -3679,27 +3685,27 @@
         <v>4.2</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>261</v>
+        <v>52</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="24" thickBot="1">
       <c r="A60" s="5" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>299</v>
+        <v>90</v>
       </c>
       <c r="D60" s="3">
         <v>32542</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F60" s="4">
         <v>500</v>
@@ -3711,27 +3717,27 @@
         <v>25</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="14" thickBot="1">
       <c r="A61" s="1" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D61" s="3">
         <v>23743</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F61" s="4">
         <v>50</v>
@@ -3743,27 +3749,27 @@
         <v>12.5</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="14" thickBot="1">
       <c r="A62" s="5" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F62" s="4">
         <v>1120</v>
@@ -3775,27 +3781,27 @@
         <v>11.2</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="24" thickBot="1">
       <c r="A63" s="5" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>299</v>
+        <v>90</v>
       </c>
       <c r="D63" s="3">
         <v>32939</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F63" s="4">
         <v>250</v>
@@ -3807,27 +3813,27 @@
         <v>25</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="23" thickBot="1">
       <c r="A64" s="1" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="D64" s="3">
         <v>26299</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F64" s="4">
         <v>1250</v>
@@ -3839,27 +3845,27 @@
         <v>12.5</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>265</v>
+        <v>56</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="23" thickBot="1">
       <c r="A65" s="1" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="D65" s="3">
         <v>25204</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F65" s="4">
         <v>5000</v>
@@ -3871,27 +3877,27 @@
         <v>25</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="14" thickBot="1">
       <c r="A66" s="1" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D66" s="3">
         <v>23743</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F66" s="4">
         <v>100</v>
@@ -3903,27 +3909,27 @@
         <v>10</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="45" thickBot="1">
       <c r="A67" s="5" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F67" s="4">
         <v>1250</v>
@@ -3935,27 +3941,27 @@
         <v>12.5</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>265</v>
+        <v>56</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="24" thickBot="1">
       <c r="A68" s="1" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>299</v>
+        <v>90</v>
       </c>
       <c r="D68" s="3">
         <v>28600</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F68" s="4">
         <v>250</v>
@@ -3967,27 +3973,27 @@
         <v>25</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="23" thickBot="1">
       <c r="A69" s="1" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D69" s="3">
         <v>32043</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F69" s="4">
         <v>1250</v>
@@ -3999,27 +4005,27 @@
         <v>12.5</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="23" thickBot="1">
       <c r="A70" s="1" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D70" s="3">
         <v>28857</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F70" s="4">
         <v>1000</v>
@@ -4031,91 +4037,91 @@
         <v>15.63</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="23" thickBot="1">
       <c r="A71" s="1" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D71" s="3">
         <v>31584</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F71" s="4">
         <v>2000</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="H71" s="4">
         <v>15.63</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="23" thickBot="1">
       <c r="A72" s="5" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D72" s="3">
         <v>31584</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F72" s="4">
         <v>2000</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="H72" s="4">
         <v>15.63</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="23" thickBot="1">
       <c r="A73" s="5" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D73" s="3">
         <v>28857</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F73" s="4">
         <v>1000</v>
@@ -4127,27 +4133,27 @@
         <v>15.63</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="23" thickBot="1">
       <c r="A74" s="1" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D74" s="3">
         <v>28857</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F74" s="4">
         <v>1000</v>
@@ -4159,27 +4165,27 @@
         <v>31.25</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="14" thickBot="1">
       <c r="A75" s="1" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="D75" s="3">
         <v>34702</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="F75" s="4">
         <v>1000</v>
@@ -4191,27 +4197,27 @@
         <v>10</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="23" thickBot="1">
       <c r="A76" s="5" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D76" s="3">
         <v>27031</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F76" s="4">
         <v>1000</v>
@@ -4223,27 +4229,27 @@
         <v>31.25</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="14" thickBot="1">
       <c r="A77" s="1" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="D77" s="3">
         <v>34702</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="F77" s="4">
         <v>1000</v>
@@ -4255,27 +4261,27 @@
         <v>5</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="14" thickBot="1">
       <c r="A78" s="1" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D78" s="3">
         <v>23743</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F78" s="4">
         <v>50</v>
@@ -4287,27 +4293,27 @@
         <v>12.5</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="24" thickBot="1">
       <c r="A79" s="1" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="D79" s="3">
         <v>34263</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="F79" s="4">
         <v>25</v>
@@ -4319,27 +4325,27 @@
         <v>12.5</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="24" thickBot="1">
       <c r="A80" s="1" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="D80" s="3">
         <v>35949</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="F80" s="4">
         <v>10</v>
@@ -4351,27 +4357,27 @@
         <v>10</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="24" thickBot="1">
       <c r="A81" s="5" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D81" s="3">
         <v>35887</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F81" s="4">
         <v>10</v>
@@ -4383,27 +4389,27 @@
         <v>10</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="24" thickBot="1">
       <c r="A82" s="1" t="s">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>2</v>
+        <v>238</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="D82" s="3">
         <v>35949</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F82" s="4">
         <v>10</v>
@@ -4415,27 +4421,27 @@
         <v>10</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="24" thickBot="1">
       <c r="A83" s="5" t="s">
-        <v>3</v>
+        <v>239</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D83" s="3">
         <v>34444</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F83" s="4">
         <v>25</v>
@@ -4447,27 +4453,27 @@
         <v>25</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="34" thickBot="1">
       <c r="A84" s="5" t="s">
-        <v>5</v>
+        <v>241</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>7</v>
+        <v>243</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F84" s="4">
         <v>100</v>
@@ -4479,27 +4485,27 @@
         <v>10</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>77</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="34" thickBot="1">
       <c r="A85" s="5" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>7</v>
+        <v>243</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F85" s="4">
         <v>5000</v>
@@ -4511,27 +4517,27 @@
         <v>25</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>77</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="14" thickBot="1">
       <c r="A86" s="5" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F86" s="4">
         <v>50</v>
@@ -4543,27 +4549,27 @@
         <v>12.5</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="23" thickBot="1">
       <c r="A87" s="5" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F87" s="4">
         <v>50</v>
@@ -4575,222 +4581,251 @@
         <v>12.5</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="14" thickBot="1">
-      <c r="A88" s="23"/>
-    </row>
-    <row r="89" spans="1:10" ht="23" thickBot="1">
-      <c r="A89" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E89" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="F89" s="20">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="23" thickBot="1">
+      <c r="A88" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="12">
         <v>600</v>
       </c>
-      <c r="G89" s="20">
+      <c r="G88" s="12">
         <v>0.01</v>
       </c>
-      <c r="H89" s="20">
+      <c r="H88" s="12">
         <v>6</v>
       </c>
-      <c r="I89" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="J89" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="14" thickBot="1">
+      <c r="I88" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="14" thickBot="1">
+      <c r="A89" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="4">
+        <v>50</v>
+      </c>
+      <c r="G89" s="6">
+        <v>42407</v>
+      </c>
+      <c r="H89" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="23" thickBot="1">
       <c r="A90" s="5" t="s">
-        <v>24</v>
+        <v>263</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>25</v>
+        <v>264</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F90" s="4">
-        <v>50</v>
-      </c>
-      <c r="G90" s="6">
-        <v>42407</v>
+        <v>100</v>
+      </c>
+      <c r="G90" s="4">
+        <v>0.1</v>
       </c>
       <c r="H90" s="4">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>243</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="23" thickBot="1">
       <c r="A91" s="5" t="s">
-        <v>27</v>
+        <v>265</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>28</v>
+        <v>266</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F91" s="4">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G91" s="4">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H91" s="4">
         <v>10</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>240</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="23" thickBot="1">
       <c r="A92" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="D92" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="4">
+        <v>50</v>
+      </c>
+      <c r="G92" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H92" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F92" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G92" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H92" s="4">
+      <c r="J92" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="34" thickBot="1">
+      <c r="A93" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G93" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H93" s="4">
         <v>10</v>
       </c>
-      <c r="I92" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="23" thickBot="1">
-      <c r="A93" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F93" s="4">
-        <v>50</v>
-      </c>
-      <c r="G93" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="H93" s="4">
-        <v>12.5</v>
-      </c>
       <c r="I93" s="2" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>243</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="34" thickBot="1">
       <c r="A94" s="5" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>35</v>
+        <v>274</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>36</v>
+        <v>275</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F94" s="4">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="G94" s="4">
         <v>0.01</v>
       </c>
       <c r="H94" s="4">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="34" thickBot="1">
       <c r="A95" s="5" t="s">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>39</v>
+        <v>278</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F95" s="4">
         <v>420</v>
@@ -4802,337 +4837,306 @@
         <v>4.2</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="34" thickBot="1">
       <c r="A96" s="5" t="s">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>42</v>
+        <v>281</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F96" s="4">
-        <v>420</v>
+        <v>10000</v>
       </c>
       <c r="G96" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="H96" s="4">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="34" thickBot="1">
       <c r="A97" s="5" t="s">
-        <v>43</v>
+        <v>283</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F97" s="4">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="G97" s="4">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="H97" s="4">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>229</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="34" thickBot="1">
       <c r="A98" s="5" t="s">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>48</v>
+        <v>287</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>49</v>
+        <v>288</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="F98" s="4">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G98" s="4">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H98" s="4">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>243</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="34" thickBot="1">
       <c r="A99" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" s="4">
         <v>50</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F99" s="4">
-        <v>100</v>
       </c>
       <c r="G99" s="4">
         <v>0.1</v>
       </c>
       <c r="H99" s="4">
+        <v>5</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="17">
+        <v>500</v>
+      </c>
+      <c r="G100" s="17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H100" s="17">
+        <v>12.5</v>
+      </c>
+      <c r="I100" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="J100" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="14" thickBot="1">
+      <c r="A101" s="22"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="17">
+        <v>400</v>
+      </c>
+      <c r="G102" s="17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H102" s="17">
         <v>10</v>
       </c>
-      <c r="I99" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="34" thickBot="1">
-      <c r="A100" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F100" s="4">
-        <v>50</v>
-      </c>
-      <c r="G100" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H100" s="4">
-        <v>5</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="F101" s="16">
-        <v>500</v>
-      </c>
-      <c r="G101" s="16">
+      <c r="I102" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J102" s="19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="14" thickBot="1">
+      <c r="A103" s="22"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
+    </row>
+    <row r="104" spans="1:10" ht="34" thickBot="1">
+      <c r="A104" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" s="4">
+        <v>400</v>
+      </c>
+      <c r="G104" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H101" s="16">
-        <v>12.5</v>
-      </c>
-      <c r="I101" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J101" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="14" thickBot="1">
-      <c r="A102" s="11"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="F103" s="16">
-        <v>400</v>
-      </c>
-      <c r="G103" s="16">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H103" s="16">
+      <c r="H104" s="4">
         <v>10</v>
       </c>
-      <c r="I103" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="J103" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="14" thickBot="1">
-      <c r="A104" s="11"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-    </row>
-    <row r="105" spans="1:10" ht="34" thickBot="1">
-      <c r="A105" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F105" s="4">
-        <v>400</v>
-      </c>
-      <c r="G105" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H105" s="4">
-        <v>10</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
-      <c r="A106" s="23"/>
-    </row>
-    <row r="107" spans="1:10" ht="77">
-      <c r="E107" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G107" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I107" s="24" t="s">
+      <c r="I104" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
+      <c r="J104" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="15"/>
+    </row>
+    <row r="106" spans="1:10" ht="77">
+      <c r="E106" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="I106" s="16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="33"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="E48:E49"/>
     <mergeCell ref="F48:F49"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
     <mergeCell ref="G48:G49"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="J100:J101"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
